--- a/stockXls/2471.xlsx
+++ b/stockXls/2471.xlsx
@@ -1486,34 +1486,34 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row spans="1:5" r="1">
-      <c s="1" t="s" r="A1">
+      <c s="1" r="A1" t="s">
         <v>0</v>
       </c>
-      <c s="1" t="s" r="B1">
+      <c s="1" r="B1" t="s">
         <v>1</v>
       </c>
-      <c s="1" t="s" r="C1">
+      <c s="1" r="C1" t="s">
         <v>2</v>
       </c>
-      <c s="1" t="s" r="D1">
+      <c s="1" r="D1" t="s">
         <v>3</v>
       </c>
-      <c s="1" t="s" r="E1">
+      <c s="1" r="E1" t="s">
         <v>4</v>
       </c>
     </row>
     <row spans="1:5" r="2">
-      <c t="s" r="A2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c t="s" r="B2">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c t="s" r="C2"/>
-      <c t="s" r="D2">
+      <c r="C2" t="s"/>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c t="s" r="E2">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1536,794 +1536,794 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row spans="1:6" r="1">
-      <c s="1" t="s" r="A1">
+      <c s="1" r="A1" t="s">
         <v>9</v>
       </c>
-      <c s="1" t="s" r="B1">
+      <c s="1" r="B1" t="s">
         <v>10</v>
       </c>
-      <c s="1" t="s" r="C1">
+      <c s="1" r="C1" t="s">
         <v>11</v>
       </c>
-      <c s="1" t="s" r="D1">
+      <c s="1" r="D1" t="s">
         <v>12</v>
       </c>
-      <c s="1" t="s" r="E1">
+      <c s="1" r="E1" t="s">
         <v>13</v>
       </c>
-      <c s="1" t="s" r="F1">
+      <c s="1" r="F1" t="s">
         <v>14</v>
       </c>
     </row>
     <row spans="1:6" r="2">
-      <c t="s" r="A2">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c t="s" r="B2">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c t="s" r="C2">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c t="s" r="D2">
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c t="s" r="E2">
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c t="s" r="F2">
+      <c r="F2" t="s">
         <v>20</v>
       </c>
     </row>
     <row spans="1:6" r="3">
-      <c t="s" r="A3">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c t="s" r="B3">
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c t="s" r="C3">
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c t="s" r="D3">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c t="s" r="E3">
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c t="s" r="F3">
+      <c r="F3" t="s">
         <v>26</v>
       </c>
     </row>
     <row spans="1:6" r="4">
-      <c t="s" r="A4">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c t="s" r="B4">
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="C4">
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="D4">
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="E4">
+      <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c t="s" r="F4">
+      <c r="F4" t="s">
         <v>32</v>
       </c>
     </row>
     <row spans="1:6" r="5">
-      <c t="s" r="A5">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c t="s" r="B5">
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c t="s" r="C5">
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c t="s" r="D5">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c t="s" r="E5">
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c t="s" r="F5">
+      <c r="F5" t="s">
         <v>38</v>
       </c>
     </row>
     <row spans="1:6" r="6">
-      <c t="s" r="A6">
+      <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="B6">
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c t="s" r="C6">
+      <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c t="s" r="D6">
+      <c r="D6" t="s">
         <v>42</v>
       </c>
-      <c t="s" r="E6">
+      <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c t="s" r="F6">
+      <c r="F6" t="s">
         <v>44</v>
       </c>
     </row>
     <row spans="1:6" r="7">
-      <c t="s" r="A7">
+      <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c t="s" r="B7">
+      <c r="B7" t="s">
         <v>46</v>
       </c>
-      <c t="s" r="C7">
+      <c r="C7" t="s">
         <v>47</v>
       </c>
-      <c t="s" r="D7">
+      <c r="D7" t="s">
         <v>48</v>
       </c>
-      <c t="s" r="E7">
+      <c r="E7" t="s">
         <v>49</v>
       </c>
-      <c t="s" r="F7">
+      <c r="F7" t="s">
         <v>50</v>
       </c>
     </row>
     <row spans="1:6" r="8">
-      <c t="s" r="A8">
+      <c r="A8" t="s">
         <v>51</v>
       </c>
-      <c t="s" r="B8">
+      <c r="B8" t="s">
         <v>52</v>
       </c>
-      <c t="s" r="C8">
+      <c r="C8" t="s">
         <v>53</v>
       </c>
-      <c t="s" r="D8">
+      <c r="D8" t="s">
         <v>54</v>
       </c>
-      <c t="s" r="E8">
+      <c r="E8" t="s">
         <v>55</v>
       </c>
-      <c t="s" r="F8">
+      <c r="F8" t="s">
         <v>56</v>
       </c>
     </row>
     <row spans="1:6" r="9">
-      <c t="s" r="A9">
+      <c r="A9" t="s">
         <v>57</v>
       </c>
-      <c t="s" r="B9">
+      <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c t="s" r="C9">
+      <c r="C9" t="s">
         <v>59</v>
       </c>
-      <c t="s" r="D9">
+      <c r="D9" t="s">
         <v>60</v>
       </c>
-      <c t="s" r="E9">
+      <c r="E9" t="s">
         <v>61</v>
       </c>
-      <c t="s" r="F9">
+      <c r="F9" t="s">
         <v>62</v>
       </c>
     </row>
     <row spans="1:6" r="10">
-      <c t="s" r="A10">
+      <c r="A10" t="s">
         <v>63</v>
       </c>
-      <c t="s" r="B10">
+      <c r="B10" t="s">
         <v>64</v>
       </c>
-      <c t="s" r="C10">
+      <c r="C10" t="s">
         <v>65</v>
       </c>
-      <c t="s" r="D10">
+      <c r="D10" t="s">
         <v>66</v>
       </c>
-      <c t="s" r="E10">
+      <c r="E10" t="s">
         <v>67</v>
       </c>
-      <c t="s" r="F10">
+      <c r="F10" t="s">
         <v>68</v>
       </c>
     </row>
     <row spans="1:6" r="11">
-      <c t="s" r="A11">
+      <c r="A11" t="s">
         <v>69</v>
       </c>
-      <c t="s" r="B11"/>
-      <c t="s" r="C11"/>
-      <c t="s" r="D11"/>
-      <c t="s" r="E11"/>
-      <c t="s" r="F11"/>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
     </row>
     <row spans="1:6" r="12">
-      <c t="s" r="A12">
+      <c r="A12" t="s">
         <v>70</v>
       </c>
-      <c t="s" r="B12">
+      <c r="B12" t="s">
         <v>71</v>
       </c>
-      <c t="s" r="C12">
+      <c r="C12" t="s">
         <v>72</v>
       </c>
-      <c t="s" r="D12">
+      <c r="D12" t="s">
         <v>73</v>
       </c>
-      <c t="s" r="E12">
+      <c r="E12" t="s">
         <v>74</v>
       </c>
-      <c t="s" r="F12">
+      <c r="F12" t="s">
         <v>75</v>
       </c>
     </row>
     <row spans="1:6" r="13">
-      <c t="s" r="A13">
+      <c r="A13" t="s">
         <v>76</v>
       </c>
-      <c t="s" r="B13">
+      <c r="B13" t="s">
         <v>77</v>
       </c>
-      <c t="s" r="C13">
+      <c r="C13" t="s">
         <v>78</v>
       </c>
-      <c t="s" r="D13">
+      <c r="D13" t="s">
         <v>79</v>
       </c>
-      <c t="s" r="E13">
+      <c r="E13" t="s">
         <v>80</v>
       </c>
-      <c t="s" r="F13">
+      <c r="F13" t="s">
         <v>81</v>
       </c>
     </row>
     <row spans="1:6" r="14">
-      <c t="s" r="A14">
+      <c r="A14" t="s">
         <v>82</v>
       </c>
-      <c t="s" r="B14">
+      <c r="B14" t="s">
         <v>83</v>
       </c>
-      <c t="s" r="C14">
+      <c r="C14" t="s">
         <v>84</v>
       </c>
-      <c t="s" r="D14">
+      <c r="D14" t="s">
         <v>85</v>
       </c>
-      <c t="s" r="E14">
+      <c r="E14" t="s">
         <v>86</v>
       </c>
-      <c t="s" r="F14">
+      <c r="F14" t="s">
         <v>87</v>
       </c>
     </row>
     <row spans="1:6" r="15">
-      <c t="s" r="A15">
+      <c r="A15" t="s">
         <v>88</v>
       </c>
-      <c t="s" r="B15">
+      <c r="B15" t="s">
         <v>89</v>
       </c>
-      <c t="s" r="C15">
+      <c r="C15" t="s">
         <v>90</v>
       </c>
-      <c t="s" r="D15">
+      <c r="D15" t="s">
         <v>91</v>
       </c>
-      <c t="s" r="E15">
+      <c r="E15" t="s">
         <v>92</v>
       </c>
-      <c t="s" r="F15">
+      <c r="F15" t="s">
         <v>93</v>
       </c>
     </row>
     <row spans="1:6" r="16">
-      <c t="s" r="A16">
+      <c r="A16" t="s">
         <v>94</v>
       </c>
-      <c t="s" r="B16"/>
-      <c t="s" r="C16"/>
-      <c t="s" r="D16"/>
-      <c t="s" r="E16"/>
-      <c t="s" r="F16"/>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="s"/>
+      <c r="E16" t="s"/>
+      <c r="F16" t="s"/>
     </row>
     <row spans="1:6" r="17">
-      <c t="s" r="A17">
+      <c r="A17" t="s">
         <v>95</v>
       </c>
-      <c t="s" r="B17"/>
-      <c t="s" r="C17"/>
-      <c t="s" r="D17"/>
-      <c t="s" r="E17"/>
-      <c t="s" r="F17"/>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="s"/>
+      <c r="E17" t="s"/>
+      <c r="F17" t="s"/>
     </row>
     <row spans="1:6" r="18">
-      <c t="s" r="A18">
+      <c r="A18" t="s">
         <v>96</v>
       </c>
-      <c t="s" r="B18"/>
-      <c t="s" r="C18"/>
-      <c t="s" r="D18"/>
-      <c t="s" r="E18"/>
-      <c t="s" r="F18"/>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="s"/>
+      <c r="E18" t="s"/>
+      <c r="F18" t="s"/>
     </row>
     <row spans="1:6" r="19">
-      <c t="s" r="A19">
+      <c r="A19" t="s">
         <v>97</v>
       </c>
-      <c t="s" r="B19"/>
-      <c t="s" r="C19"/>
-      <c t="s" r="D19"/>
-      <c t="s" r="E19"/>
-      <c t="s" r="F19"/>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="s"/>
+      <c r="E19" t="s"/>
+      <c r="F19" t="s"/>
     </row>
     <row spans="1:6" r="20">
-      <c t="s" r="A20">
+      <c r="A20" t="s">
         <v>98</v>
       </c>
-      <c t="s" r="B20">
+      <c r="B20" t="s">
         <v>99</v>
       </c>
-      <c t="s" r="C20">
+      <c r="C20" t="s">
         <v>100</v>
       </c>
-      <c t="s" r="D20">
+      <c r="D20" t="s">
         <v>101</v>
       </c>
-      <c t="s" r="E20">
+      <c r="E20" t="s">
         <v>102</v>
       </c>
-      <c t="s" r="F20">
+      <c r="F20" t="s">
         <v>103</v>
       </c>
     </row>
     <row spans="1:6" r="21">
-      <c t="s" r="A21">
+      <c r="A21" t="s">
         <v>104</v>
       </c>
-      <c t="s" r="B21">
+      <c r="B21" t="s">
         <v>105</v>
       </c>
-      <c t="s" r="C21">
+      <c r="C21" t="s">
         <v>106</v>
       </c>
-      <c t="s" r="D21">
+      <c r="D21" t="s">
         <v>107</v>
       </c>
-      <c t="s" r="E21">
+      <c r="E21" t="s">
         <v>108</v>
       </c>
-      <c t="s" r="F21">
+      <c r="F21" t="s">
         <v>109</v>
       </c>
     </row>
     <row spans="1:6" r="22">
-      <c t="s" r="A22">
+      <c r="A22" t="s">
         <v>110</v>
       </c>
-      <c t="s" r="B22">
+      <c r="B22" t="s">
         <v>111</v>
       </c>
-      <c t="s" r="C22">
+      <c r="C22" t="s">
         <v>112</v>
       </c>
-      <c t="s" r="D22">
+      <c r="D22" t="s">
         <v>113</v>
       </c>
-      <c t="s" r="E22">
+      <c r="E22" t="s">
         <v>114</v>
       </c>
-      <c t="s" r="F22">
+      <c r="F22" t="s">
         <v>115</v>
       </c>
     </row>
     <row spans="1:6" r="23">
-      <c t="s" r="A23">
+      <c r="A23" t="s">
         <v>116</v>
       </c>
-      <c t="s" r="B23">
+      <c r="B23" t="s">
         <v>117</v>
       </c>
-      <c t="s" r="C23">
+      <c r="C23" t="s">
         <v>118</v>
       </c>
-      <c t="s" r="D23">
+      <c r="D23" t="s">
         <v>119</v>
       </c>
-      <c t="s" r="E23">
+      <c r="E23" t="s">
         <v>120</v>
       </c>
-      <c t="s" r="F23">
+      <c r="F23" t="s">
         <v>121</v>
       </c>
     </row>
     <row spans="1:6" r="24">
-      <c t="s" r="A24">
+      <c r="A24" t="s">
         <v>122</v>
       </c>
-      <c t="s" r="B24">
+      <c r="B24" t="s">
         <v>123</v>
       </c>
-      <c t="s" r="C24">
+      <c r="C24" t="s">
         <v>124</v>
       </c>
-      <c t="s" r="D24">
+      <c r="D24" t="s">
         <v>125</v>
       </c>
-      <c t="s" r="E24">
+      <c r="E24" t="s">
         <v>126</v>
       </c>
-      <c t="s" r="F24">
+      <c r="F24" t="s">
         <v>127</v>
       </c>
     </row>
     <row spans="1:6" r="25">
-      <c t="s" r="A25">
+      <c r="A25" t="s">
         <v>128</v>
       </c>
-      <c t="s" r="B25">
+      <c r="B25" t="s">
         <v>129</v>
       </c>
-      <c t="s" r="C25">
+      <c r="C25" t="s">
         <v>130</v>
       </c>
-      <c t="s" r="D25">
+      <c r="D25" t="s">
         <v>131</v>
       </c>
-      <c t="s" r="E25">
+      <c r="E25" t="s">
         <v>132</v>
       </c>
-      <c t="s" r="F25">
+      <c r="F25" t="s">
         <v>133</v>
       </c>
     </row>
     <row spans="1:6" r="26">
-      <c t="s" r="A26">
+      <c r="A26" t="s">
         <v>134</v>
       </c>
-      <c t="s" r="B26">
+      <c r="B26" t="s">
         <v>135</v>
       </c>
-      <c t="s" r="C26">
+      <c r="C26" t="s">
         <v>136</v>
       </c>
-      <c t="s" r="D26">
+      <c r="D26" t="s">
         <v>137</v>
       </c>
-      <c t="s" r="E26">
+      <c r="E26" t="s">
         <v>138</v>
       </c>
-      <c t="s" r="F26">
+      <c r="F26" t="s">
         <v>139</v>
       </c>
     </row>
     <row spans="1:6" r="27">
-      <c t="s" r="A27">
+      <c r="A27" t="s">
         <v>140</v>
       </c>
-      <c t="s" r="B27">
+      <c r="B27" t="s">
         <v>141</v>
       </c>
-      <c t="s" r="C27">
+      <c r="C27" t="s">
         <v>142</v>
       </c>
-      <c t="s" r="D27">
+      <c r="D27" t="s">
         <v>143</v>
       </c>
-      <c t="s" r="E27">
+      <c r="E27" t="s">
         <v>144</v>
       </c>
-      <c t="s" r="F27">
+      <c r="F27" t="s">
         <v>145</v>
       </c>
     </row>
     <row spans="1:6" r="28">
-      <c t="s" r="A28">
+      <c r="A28" t="s">
         <v>146</v>
       </c>
-      <c t="s" r="B28">
+      <c r="B28" t="s">
         <v>147</v>
       </c>
-      <c t="s" r="C28">
+      <c r="C28" t="s">
         <v>148</v>
       </c>
-      <c t="s" r="D28">
+      <c r="D28" t="s">
         <v>149</v>
       </c>
-      <c t="s" r="E28">
+      <c r="E28" t="s">
         <v>150</v>
       </c>
-      <c t="s" r="F28">
+      <c r="F28" t="s">
         <v>151</v>
       </c>
     </row>
     <row spans="1:6" r="29">
-      <c t="s" r="A29">
+      <c r="A29" t="s">
         <v>152</v>
       </c>
-      <c t="s" r="B29">
+      <c r="B29" t="s">
         <v>153</v>
       </c>
-      <c t="s" r="C29">
+      <c r="C29" t="s">
         <v>154</v>
       </c>
-      <c t="s" r="D29">
+      <c r="D29" t="s">
         <v>155</v>
       </c>
-      <c t="s" r="E29">
+      <c r="E29" t="s">
         <v>156</v>
       </c>
-      <c t="s" r="F29">
+      <c r="F29" t="s">
         <v>157</v>
       </c>
     </row>
     <row spans="1:6" r="30">
-      <c t="s" r="A30">
+      <c r="A30" t="s">
         <v>158</v>
       </c>
-      <c t="s" r="B30">
+      <c r="B30" t="s">
         <v>159</v>
       </c>
-      <c t="s" r="C30">
+      <c r="C30" t="s">
         <v>160</v>
       </c>
-      <c t="s" r="D30">
+      <c r="D30" t="s">
         <v>161</v>
       </c>
-      <c t="s" r="E30">
+      <c r="E30" t="s">
         <v>162</v>
       </c>
-      <c t="s" r="F30">
+      <c r="F30" t="s">
         <v>163</v>
       </c>
     </row>
     <row spans="1:6" r="31">
-      <c t="s" r="A31">
+      <c r="A31" t="s">
         <v>164</v>
       </c>
-      <c t="s" r="B31">
+      <c r="B31" t="s">
         <v>159</v>
       </c>
-      <c t="s" r="C31">
+      <c r="C31" t="s">
         <v>160</v>
       </c>
-      <c t="s" r="D31">
+      <c r="D31" t="s">
         <v>161</v>
       </c>
-      <c t="s" r="E31">
+      <c r="E31" t="s">
         <v>165</v>
       </c>
-      <c t="s" r="F31">
+      <c r="F31" t="s">
         <v>163</v>
       </c>
     </row>
     <row spans="1:6" r="32">
-      <c t="s" r="A32">
+      <c r="A32" t="s">
         <v>166</v>
       </c>
-      <c t="s" r="B32">
+      <c r="B32" t="s">
         <v>167</v>
       </c>
-      <c t="s" r="C32">
+      <c r="C32" t="s">
         <v>168</v>
       </c>
-      <c t="s" r="D32">
+      <c r="D32" t="s">
         <v>169</v>
       </c>
-      <c t="s" r="E32">
+      <c r="E32" t="s">
         <v>170</v>
       </c>
-      <c t="s" r="F32">
+      <c r="F32" t="s">
         <v>171</v>
       </c>
     </row>
     <row spans="1:6" r="33">
-      <c t="s" r="A33">
+      <c r="A33" t="s">
         <v>172</v>
       </c>
-      <c t="s" r="B33">
+      <c r="B33" t="s">
         <v>173</v>
       </c>
-      <c t="s" r="C33">
+      <c r="C33" t="s">
         <v>174</v>
       </c>
-      <c t="s" r="D33">
+      <c r="D33" t="s">
         <v>175</v>
       </c>
-      <c t="s" r="E33">
+      <c r="E33" t="s">
         <v>176</v>
       </c>
-      <c t="s" r="F33">
+      <c r="F33" t="s">
         <v>177</v>
       </c>
     </row>
     <row spans="1:6" r="34">
-      <c t="s" r="A34">
+      <c r="A34" t="s">
         <v>178</v>
       </c>
-      <c t="s" r="B34">
+      <c r="B34" t="s">
         <v>179</v>
       </c>
-      <c t="s" r="C34">
+      <c r="C34" t="s">
         <v>180</v>
       </c>
-      <c t="s" r="D34">
+      <c r="D34" t="s">
         <v>181</v>
       </c>
-      <c t="s" r="E34">
+      <c r="E34" t="s">
         <v>182</v>
       </c>
-      <c t="s" r="F34">
+      <c r="F34" t="s">
         <v>183</v>
       </c>
     </row>
     <row spans="1:6" r="35">
-      <c t="s" r="A35">
+      <c r="A35" t="s">
         <v>184</v>
       </c>
-      <c t="s" r="B35">
+      <c r="B35" t="s">
         <v>185</v>
       </c>
-      <c t="s" r="C35">
+      <c r="C35" t="s">
         <v>186</v>
       </c>
-      <c t="s" r="D35">
+      <c r="D35" t="s">
         <v>187</v>
       </c>
-      <c t="s" r="E35">
+      <c r="E35" t="s">
         <v>188</v>
       </c>
-      <c t="s" r="F35">
+      <c r="F35" t="s">
         <v>189</v>
       </c>
     </row>
     <row spans="1:6" r="36">
-      <c t="s" r="A36">
+      <c r="A36" t="s">
         <v>190</v>
       </c>
-      <c t="s" r="B36">
+      <c r="B36" t="s">
         <v>191</v>
       </c>
-      <c t="s" r="C36">
+      <c r="C36" t="s">
         <v>192</v>
       </c>
-      <c t="s" r="D36">
+      <c r="D36" t="s">
         <v>193</v>
       </c>
-      <c t="s" r="E36">
+      <c r="E36" t="s">
         <v>194</v>
       </c>
-      <c t="s" r="F36">
+      <c r="F36" t="s">
         <v>195</v>
       </c>
     </row>
     <row spans="1:6" r="37">
-      <c t="s" r="A37">
+      <c r="A37" t="s">
         <v>196</v>
       </c>
-      <c t="s" r="B37">
+      <c r="B37" t="s">
         <v>197</v>
       </c>
-      <c t="s" r="C37">
+      <c r="C37" t="s">
         <v>198</v>
       </c>
-      <c t="s" r="D37">
+      <c r="D37" t="s">
         <v>199</v>
       </c>
-      <c t="s" r="E37">
+      <c r="E37" t="s">
         <v>200</v>
       </c>
-      <c t="s" r="F37">
+      <c r="F37" t="s">
         <v>201</v>
       </c>
     </row>
     <row spans="1:6" r="38">
-      <c t="s" r="A38">
+      <c r="A38" t="s">
         <v>202</v>
       </c>
-      <c t="s" r="B38">
+      <c r="B38" t="s">
         <v>165</v>
       </c>
-      <c t="s" r="C38">
+      <c r="C38" t="s">
         <v>203</v>
       </c>
-      <c t="s" r="D38">
+      <c r="D38" t="s">
         <v>204</v>
       </c>
-      <c t="s" r="E38">
+      <c r="E38" t="s">
         <v>205</v>
       </c>
-      <c t="s" r="F38">
+      <c r="F38" t="s">
         <v>206</v>
       </c>
     </row>
     <row spans="1:6" r="39">
-      <c t="s" r="A39">
+      <c r="A39" t="s">
         <v>207</v>
       </c>
-      <c t="s" r="B39">
+      <c r="B39" t="s">
         <v>208</v>
       </c>
-      <c t="s" r="C39">
+      <c r="C39" t="s">
         <v>209</v>
       </c>
-      <c t="s" r="D39">
+      <c r="D39" t="s">
         <v>210</v>
       </c>
-      <c t="s" r="E39">
+      <c r="E39" t="s">
         <v>211</v>
       </c>
-      <c t="s" r="F39">
+      <c r="F39" t="s">
         <v>212</v>
       </c>
     </row>
     <row spans="1:6" r="40">
-      <c t="s" r="A40">
+      <c r="A40" t="s">
         <v>213</v>
       </c>
-      <c t="s" r="B40">
+      <c r="B40" t="s">
         <v>214</v>
       </c>
-      <c t="s" r="C40">
+      <c r="C40" t="s">
         <v>215</v>
       </c>
-      <c t="s" r="D40">
+      <c r="D40" t="s">
         <v>216</v>
       </c>
-      <c t="s" r="E40">
+      <c r="E40" t="s">
         <v>217</v>
       </c>
-      <c t="s" r="F40">
+      <c r="F40" t="s">
         <v>218</v>
       </c>
     </row>
     <row spans="1:6" r="41">
-      <c t="s" r="A41">
+      <c r="A41" t="s">
         <v>219</v>
       </c>
-      <c t="s" r="B41">
+      <c r="B41" t="s">
         <v>220</v>
       </c>
-      <c t="s" r="C41">
+      <c r="C41" t="s">
         <v>221</v>
       </c>
-      <c t="s" r="D41">
+      <c r="D41" t="s">
         <v>222</v>
       </c>
-      <c t="s" r="E41">
+      <c r="E41" t="s">
         <v>223</v>
       </c>
-      <c t="s" r="F41">
+      <c r="F41" t="s">
         <v>224</v>
       </c>
     </row>
     <row spans="1:6" r="42">
-      <c t="s" r="A42">
+      <c r="A42" t="s">
         <v>225</v>
       </c>
-      <c t="s" r="B42"/>
-      <c t="s" r="C42"/>
-      <c t="s" r="D42"/>
-      <c t="s" r="E42"/>
-      <c t="s" r="F42"/>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="s"/>
+      <c r="E42" t="s"/>
+      <c r="F42" t="s"/>
     </row>
     <row spans="1:6" r="43">
-      <c t="s" r="A43">
+      <c r="A43" t="s">
         <v>226</v>
       </c>
-      <c t="s" r="B43"/>
-      <c t="s" r="C43"/>
-      <c t="s" r="D43"/>
-      <c t="s" r="E43"/>
-      <c t="s" r="F43"/>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="s"/>
+      <c r="E43" t="s"/>
+      <c r="F43" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2344,804 +2344,804 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row spans="1:6" r="1">
-      <c s="1" t="s" r="A1">
+      <c s="1" r="A1" t="s">
         <v>9</v>
       </c>
-      <c s="1" t="s" r="B1">
+      <c s="1" r="B1" t="s">
         <v>227</v>
       </c>
-      <c s="1" t="s" r="C1">
+      <c s="1" r="C1" t="s">
         <v>228</v>
       </c>
-      <c s="1" t="s" r="D1">
+      <c s="1" r="D1" t="s">
         <v>229</v>
       </c>
-      <c s="1" t="s" r="E1">
+      <c s="1" r="E1" t="s">
         <v>230</v>
       </c>
-      <c s="1" t="s" r="F1">
+      <c s="1" r="F1" t="s">
         <v>231</v>
       </c>
     </row>
     <row spans="1:6" r="2">
-      <c t="s" r="A2">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c t="s" r="B2">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c t="s" r="C2">
+      <c r="C2" t="s">
         <v>232</v>
       </c>
-      <c t="s" r="D2">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c t="s" r="E2">
+      <c r="E2" t="s">
         <v>233</v>
       </c>
-      <c t="s" r="F2">
+      <c r="F2" t="s">
         <v>234</v>
       </c>
     </row>
     <row spans="1:6" r="3">
-      <c t="s" r="A3">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c t="s" r="B3">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c t="s" r="C3"/>
-      <c t="s" r="D3"/>
-      <c t="s" r="E3"/>
-      <c t="s" r="F3"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
     </row>
     <row spans="1:6" r="4">
-      <c t="s" r="A4">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c t="s" r="B4">
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c t="s" r="C4">
+      <c r="C4" t="s">
         <v>235</v>
       </c>
-      <c t="s" r="D4">
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c t="s" r="E4">
+      <c r="E4" t="s">
         <v>236</v>
       </c>
-      <c t="s" r="F4">
+      <c r="F4" t="s">
         <v>237</v>
       </c>
     </row>
     <row spans="1:6" r="5">
-      <c t="s" r="A5">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c t="s" r="B5">
+      <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c t="s" r="C5">
+      <c r="C5" t="s">
         <v>238</v>
       </c>
-      <c t="s" r="D5">
+      <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c t="s" r="E5">
+      <c r="E5" t="s">
         <v>239</v>
       </c>
-      <c t="s" r="F5">
+      <c r="F5" t="s">
         <v>240</v>
       </c>
     </row>
     <row spans="1:6" r="6">
-      <c t="s" r="A6">
+      <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="B6">
+      <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c t="s" r="C6">
+      <c r="C6" t="s">
         <v>241</v>
       </c>
-      <c t="s" r="D6">
+      <c r="D6" t="s">
         <v>242</v>
       </c>
-      <c t="s" r="E6">
+      <c r="E6" t="s">
         <v>243</v>
       </c>
-      <c t="s" r="F6">
+      <c r="F6" t="s">
         <v>244</v>
       </c>
     </row>
     <row spans="1:6" r="7">
-      <c t="s" r="A7">
+      <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c t="s" r="B7">
+      <c r="B7" t="s">
         <v>49</v>
       </c>
-      <c t="s" r="C7">
+      <c r="C7" t="s">
         <v>245</v>
       </c>
-      <c t="s" r="D7">
+      <c r="D7" t="s">
         <v>246</v>
       </c>
-      <c t="s" r="E7">
+      <c r="E7" t="s">
         <v>247</v>
       </c>
-      <c t="s" r="F7">
+      <c r="F7" t="s">
         <v>248</v>
       </c>
     </row>
     <row spans="1:6" r="8">
-      <c t="s" r="A8">
+      <c r="A8" t="s">
         <v>51</v>
       </c>
-      <c t="s" r="B8">
+      <c r="B8" t="s">
         <v>55</v>
       </c>
-      <c t="s" r="C8"/>
-      <c t="s" r="D8"/>
-      <c t="s" r="E8"/>
-      <c t="s" r="F8">
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s">
         <v>249</v>
       </c>
     </row>
     <row spans="1:6" r="9">
-      <c t="s" r="A9">
+      <c r="A9" t="s">
         <v>57</v>
       </c>
-      <c t="s" r="B9">
+      <c r="B9" t="s">
         <v>61</v>
       </c>
-      <c t="s" r="C9">
+      <c r="C9" t="s">
         <v>250</v>
       </c>
-      <c t="s" r="D9">
+      <c r="D9" t="s">
         <v>251</v>
       </c>
-      <c t="s" r="E9">
+      <c r="E9" t="s">
         <v>252</v>
       </c>
-      <c t="s" r="F9">
+      <c r="F9" t="s">
         <v>253</v>
       </c>
     </row>
     <row spans="1:6" r="10">
-      <c t="s" r="A10">
+      <c r="A10" t="s">
         <v>63</v>
       </c>
-      <c t="s" r="B10">
+      <c r="B10" t="s">
         <v>67</v>
       </c>
-      <c t="s" r="C10">
+      <c r="C10" t="s">
         <v>254</v>
       </c>
-      <c t="s" r="D10">
+      <c r="D10" t="s">
         <v>255</v>
       </c>
-      <c t="s" r="E10">
+      <c r="E10" t="s">
         <v>256</v>
       </c>
-      <c t="s" r="F10">
+      <c r="F10" t="s">
         <v>257</v>
       </c>
     </row>
     <row spans="1:6" r="11">
-      <c t="s" r="A11">
+      <c r="A11" t="s">
         <v>69</v>
       </c>
-      <c t="s" r="B11"/>
-      <c t="s" r="C11"/>
-      <c t="s" r="D11"/>
-      <c t="s" r="E11"/>
-      <c t="s" r="F11">
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s">
         <v>258</v>
       </c>
     </row>
     <row spans="1:6" r="12">
-      <c t="s" r="A12">
+      <c r="A12" t="s">
         <v>70</v>
       </c>
-      <c t="s" r="B12">
+      <c r="B12" t="s">
         <v>74</v>
       </c>
-      <c t="s" r="C12">
+      <c r="C12" t="s">
         <v>259</v>
       </c>
-      <c t="s" r="D12">
+      <c r="D12" t="s">
         <v>260</v>
       </c>
-      <c t="s" r="E12">
+      <c r="E12" t="s">
         <v>261</v>
       </c>
-      <c t="s" r="F12">
+      <c r="F12" t="s">
         <v>262</v>
       </c>
     </row>
     <row spans="1:6" r="13">
-      <c t="s" r="A13">
+      <c r="A13" t="s">
         <v>76</v>
       </c>
-      <c t="s" r="B13">
+      <c r="B13" t="s">
         <v>80</v>
       </c>
-      <c t="s" r="C13">
+      <c r="C13" t="s">
         <v>263</v>
       </c>
-      <c t="s" r="D13">
+      <c r="D13" t="s">
         <v>264</v>
       </c>
-      <c t="s" r="E13">
+      <c r="E13" t="s">
         <v>265</v>
       </c>
-      <c t="s" r="F13">
+      <c r="F13" t="s">
         <v>266</v>
       </c>
     </row>
     <row spans="1:6" r="14">
-      <c t="s" r="A14">
+      <c r="A14" t="s">
         <v>82</v>
       </c>
-      <c t="s" r="B14">
+      <c r="B14" t="s">
         <v>86</v>
       </c>
-      <c t="s" r="C14">
+      <c r="C14" t="s">
         <v>267</v>
       </c>
-      <c t="s" r="D14">
+      <c r="D14" t="s">
         <v>268</v>
       </c>
-      <c t="s" r="E14">
+      <c r="E14" t="s">
         <v>269</v>
       </c>
-      <c t="s" r="F14">
+      <c r="F14" t="s">
         <v>102</v>
       </c>
     </row>
     <row spans="1:6" r="15">
-      <c t="s" r="A15">
+      <c r="A15" t="s">
         <v>88</v>
       </c>
-      <c t="s" r="B15">
+      <c r="B15" t="s">
         <v>92</v>
       </c>
-      <c t="s" r="C15">
+      <c r="C15" t="s">
         <v>270</v>
       </c>
-      <c t="s" r="D15">
+      <c r="D15" t="s">
         <v>271</v>
       </c>
-      <c t="s" r="E15">
+      <c r="E15" t="s">
         <v>272</v>
       </c>
-      <c t="s" r="F15">
+      <c r="F15" t="s">
         <v>273</v>
       </c>
     </row>
     <row spans="1:6" r="16">
-      <c t="s" r="A16">
+      <c r="A16" t="s">
         <v>94</v>
       </c>
-      <c t="s" r="B16"/>
-      <c t="s" r="C16"/>
-      <c t="s" r="D16"/>
-      <c t="s" r="E16"/>
-      <c t="s" r="F16">
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="s"/>
+      <c r="E16" t="s"/>
+      <c r="F16" t="s">
         <v>258</v>
       </c>
     </row>
     <row spans="1:6" r="17">
-      <c t="s" r="A17">
+      <c r="A17" t="s">
         <v>95</v>
       </c>
-      <c t="s" r="B17"/>
-      <c t="s" r="C17"/>
-      <c t="s" r="D17"/>
-      <c t="s" r="E17"/>
-      <c t="s" r="F17">
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="s"/>
+      <c r="E17" t="s"/>
+      <c r="F17" t="s">
         <v>258</v>
       </c>
     </row>
     <row spans="1:6" r="18">
-      <c t="s" r="A18">
+      <c r="A18" t="s">
         <v>96</v>
       </c>
-      <c t="s" r="B18"/>
-      <c t="s" r="C18"/>
-      <c t="s" r="D18"/>
-      <c t="s" r="E18"/>
-      <c t="s" r="F18"/>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="s"/>
+      <c r="E18" t="s"/>
+      <c r="F18" t="s"/>
     </row>
     <row spans="1:6" r="19">
-      <c t="s" r="A19">
+      <c r="A19" t="s">
         <v>97</v>
       </c>
-      <c t="s" r="B19"/>
-      <c t="s" r="C19"/>
-      <c t="s" r="D19"/>
-      <c t="s" r="E19"/>
-      <c t="s" r="F19"/>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="s"/>
+      <c r="E19" t="s"/>
+      <c r="F19" t="s"/>
     </row>
     <row spans="1:6" r="20">
-      <c t="s" r="A20">
+      <c r="A20" t="s">
         <v>98</v>
       </c>
-      <c t="s" r="B20">
+      <c r="B20" t="s">
         <v>102</v>
       </c>
-      <c t="s" r="C20">
+      <c r="C20" t="s">
         <v>274</v>
       </c>
-      <c t="s" r="D20">
+      <c r="D20" t="s">
         <v>275</v>
       </c>
-      <c t="s" r="E20">
+      <c r="E20" t="s">
         <v>276</v>
       </c>
-      <c t="s" r="F20">
+      <c r="F20" t="s">
         <v>277</v>
       </c>
     </row>
     <row spans="1:6" r="21">
-      <c t="s" r="A21">
+      <c r="A21" t="s">
         <v>104</v>
       </c>
-      <c t="s" r="B21">
+      <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c t="s" r="C21">
+      <c r="C21" t="s">
         <v>278</v>
       </c>
-      <c t="s" r="D21">
+      <c r="D21" t="s">
         <v>279</v>
       </c>
-      <c t="s" r="E21">
+      <c r="E21" t="s">
         <v>280</v>
       </c>
-      <c t="s" r="F21">
+      <c r="F21" t="s">
         <v>281</v>
       </c>
     </row>
     <row spans="1:6" r="22">
-      <c t="s" r="A22">
+      <c r="A22" t="s">
         <v>110</v>
       </c>
-      <c t="s" r="B22">
+      <c r="B22" t="s">
         <v>114</v>
       </c>
-      <c t="s" r="C22">
+      <c r="C22" t="s">
         <v>282</v>
       </c>
-      <c t="s" r="D22">
+      <c r="D22" t="s">
         <v>283</v>
       </c>
-      <c t="s" r="E22">
+      <c r="E22" t="s">
         <v>284</v>
       </c>
-      <c t="s" r="F22">
+      <c r="F22" t="s">
         <v>285</v>
       </c>
     </row>
     <row spans="1:6" r="23">
-      <c t="s" r="A23">
+      <c r="A23" t="s">
         <v>286</v>
       </c>
-      <c t="s" r="B23"/>
-      <c t="s" r="C23"/>
-      <c t="s" r="D23"/>
-      <c t="s" r="E23"/>
-      <c t="s" r="F23">
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="s"/>
+      <c r="E23" t="s"/>
+      <c r="F23" t="s">
         <v>281</v>
       </c>
     </row>
     <row spans="1:6" r="24">
-      <c t="s" r="A24">
+      <c r="A24" t="s">
         <v>116</v>
       </c>
-      <c t="s" r="B24">
+      <c r="B24" t="s">
         <v>120</v>
       </c>
-      <c t="s" r="C24">
+      <c r="C24" t="s">
         <v>287</v>
       </c>
-      <c t="s" r="D24">
+      <c r="D24" t="s">
         <v>288</v>
       </c>
-      <c t="s" r="E24">
+      <c r="E24" t="s">
         <v>289</v>
       </c>
-      <c t="s" r="F24">
+      <c r="F24" t="s">
         <v>290</v>
       </c>
     </row>
     <row spans="1:6" r="25">
-      <c t="s" r="A25">
+      <c r="A25" t="s">
         <v>122</v>
       </c>
-      <c t="s" r="B25">
+      <c r="B25" t="s">
         <v>126</v>
       </c>
-      <c t="s" r="C25">
+      <c r="C25" t="s">
         <v>291</v>
       </c>
-      <c t="s" r="D25">
+      <c r="D25" t="s">
         <v>292</v>
       </c>
-      <c t="s" r="E25">
+      <c r="E25" t="s">
         <v>293</v>
       </c>
-      <c t="s" r="F25">
+      <c r="F25" t="s">
         <v>294</v>
       </c>
     </row>
     <row spans="1:6" r="26">
-      <c t="s" r="A26">
+      <c r="A26" t="s">
         <v>128</v>
       </c>
-      <c t="s" r="B26">
+      <c r="B26" t="s">
         <v>132</v>
       </c>
-      <c t="s" r="C26">
+      <c r="C26" t="s">
         <v>295</v>
       </c>
-      <c t="s" r="D26">
+      <c r="D26" t="s">
         <v>296</v>
       </c>
-      <c t="s" r="E26">
+      <c r="E26" t="s">
         <v>297</v>
       </c>
-      <c t="s" r="F26">
+      <c r="F26" t="s">
         <v>298</v>
       </c>
     </row>
     <row spans="1:6" r="27">
-      <c t="s" r="A27">
+      <c r="A27" t="s">
         <v>134</v>
       </c>
-      <c t="s" r="B27">
+      <c r="B27" t="s">
         <v>138</v>
       </c>
-      <c t="s" r="C27">
+      <c r="C27" t="s">
         <v>299</v>
       </c>
-      <c t="s" r="D27">
+      <c r="D27" t="s">
         <v>300</v>
       </c>
-      <c t="s" r="E27">
+      <c r="E27" t="s">
         <v>301</v>
       </c>
-      <c t="s" r="F27">
+      <c r="F27" t="s">
         <v>302</v>
       </c>
     </row>
     <row spans="1:6" r="28">
-      <c t="s" r="A28">
+      <c r="A28" t="s">
         <v>140</v>
       </c>
-      <c t="s" r="B28">
+      <c r="B28" t="s">
         <v>144</v>
       </c>
-      <c t="s" r="C28">
+      <c r="C28" t="s">
         <v>303</v>
       </c>
-      <c t="s" r="D28">
+      <c r="D28" t="s">
         <v>304</v>
       </c>
-      <c t="s" r="E28">
+      <c r="E28" t="s">
         <v>305</v>
       </c>
-      <c t="s" r="F28">
+      <c r="F28" t="s">
         <v>306</v>
       </c>
     </row>
     <row spans="1:6" r="29">
-      <c t="s" r="A29">
+      <c r="A29" t="s">
         <v>146</v>
       </c>
-      <c t="s" r="B29">
+      <c r="B29" t="s">
         <v>150</v>
       </c>
-      <c t="s" r="C29">
+      <c r="C29" t="s">
         <v>291</v>
       </c>
-      <c t="s" r="D29">
+      <c r="D29" t="s">
         <v>292</v>
       </c>
-      <c t="s" r="E29">
+      <c r="E29" t="s">
         <v>293</v>
       </c>
-      <c t="s" r="F29">
+      <c r="F29" t="s">
         <v>294</v>
       </c>
     </row>
     <row spans="1:6" r="30">
-      <c t="s" r="A30">
+      <c r="A30" t="s">
         <v>152</v>
       </c>
-      <c t="s" r="B30">
+      <c r="B30" t="s">
         <v>156</v>
       </c>
-      <c t="s" r="C30">
+      <c r="C30" t="s">
         <v>307</v>
       </c>
-      <c t="s" r="D30">
+      <c r="D30" t="s">
         <v>308</v>
       </c>
-      <c t="s" r="E30">
+      <c r="E30" t="s">
         <v>309</v>
       </c>
-      <c t="s" r="F30">
+      <c r="F30" t="s">
         <v>310</v>
       </c>
     </row>
     <row spans="1:6" r="31">
-      <c t="s" r="A31">
+      <c r="A31" t="s">
         <v>158</v>
       </c>
-      <c t="s" r="B31">
+      <c r="B31" t="s">
         <v>162</v>
       </c>
-      <c t="s" r="C31">
+      <c r="C31" t="s">
         <v>311</v>
       </c>
-      <c t="s" r="D31">
+      <c r="D31" t="s">
         <v>312</v>
       </c>
-      <c t="s" r="E31">
+      <c r="E31" t="s">
         <v>313</v>
       </c>
-      <c t="s" r="F31">
+      <c r="F31" t="s">
         <v>314</v>
       </c>
     </row>
     <row spans="1:6" r="32">
-      <c t="s" r="A32">
+      <c r="A32" t="s">
         <v>164</v>
       </c>
-      <c t="s" r="B32">
+      <c r="B32" t="s">
         <v>165</v>
       </c>
-      <c t="s" r="C32"/>
-      <c t="s" r="D32"/>
-      <c t="s" r="E32"/>
-      <c t="s" r="F32"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="s"/>
+      <c r="E32" t="s"/>
+      <c r="F32" t="s"/>
     </row>
     <row spans="1:6" r="33">
-      <c t="s" r="A33">
+      <c r="A33" t="s">
         <v>166</v>
       </c>
-      <c t="s" r="B33">
+      <c r="B33" t="s">
         <v>170</v>
       </c>
-      <c t="s" r="C33">
+      <c r="C33" t="s">
         <v>315</v>
       </c>
-      <c t="s" r="D33">
+      <c r="D33" t="s">
         <v>316</v>
       </c>
-      <c t="s" r="E33">
+      <c r="E33" t="s">
         <v>317</v>
       </c>
-      <c t="s" r="F33">
+      <c r="F33" t="s">
         <v>318</v>
       </c>
     </row>
     <row spans="1:6" r="34">
-      <c t="s" r="A34">
+      <c r="A34" t="s">
         <v>172</v>
       </c>
-      <c t="s" r="B34">
+      <c r="B34" t="s">
         <v>176</v>
       </c>
-      <c t="s" r="C34">
+      <c r="C34" t="s">
         <v>319</v>
       </c>
-      <c t="s" r="D34">
+      <c r="D34" t="s">
         <v>153</v>
       </c>
-      <c t="s" r="E34">
+      <c r="E34" t="s">
         <v>320</v>
       </c>
-      <c t="s" r="F34">
+      <c r="F34" t="s">
         <v>321</v>
       </c>
     </row>
     <row spans="1:6" r="35">
-      <c t="s" r="A35">
+      <c r="A35" t="s">
         <v>178</v>
       </c>
-      <c t="s" r="B35">
+      <c r="B35" t="s">
         <v>182</v>
       </c>
-      <c t="s" r="C35">
+      <c r="C35" t="s">
         <v>322</v>
       </c>
-      <c t="s" r="D35">
+      <c r="D35" t="s">
         <v>323</v>
       </c>
-      <c t="s" r="E35">
+      <c r="E35" t="s">
         <v>324</v>
       </c>
-      <c t="s" r="F35">
+      <c r="F35" t="s">
         <v>325</v>
       </c>
     </row>
     <row spans="1:6" r="36">
-      <c t="s" r="A36">
+      <c r="A36" t="s">
         <v>184</v>
       </c>
-      <c t="s" r="B36">
+      <c r="B36" t="s">
         <v>188</v>
       </c>
-      <c t="s" r="C36">
+      <c r="C36" t="s">
         <v>318</v>
       </c>
-      <c t="s" r="D36">
+      <c r="D36" t="s">
         <v>326</v>
       </c>
-      <c t="s" r="E36">
+      <c r="E36" t="s">
         <v>327</v>
       </c>
-      <c t="s" r="F36">
+      <c r="F36" t="s">
         <v>328</v>
       </c>
     </row>
     <row spans="1:6" r="37">
-      <c t="s" r="A37">
+      <c r="A37" t="s">
         <v>190</v>
       </c>
-      <c t="s" r="B37">
+      <c r="B37" t="s">
         <v>194</v>
       </c>
-      <c t="s" r="C37">
+      <c r="C37" t="s">
         <v>194</v>
       </c>
-      <c t="s" r="D37">
+      <c r="D37" t="s">
         <v>329</v>
       </c>
-      <c t="s" r="E37">
+      <c r="E37" t="s">
         <v>330</v>
       </c>
-      <c t="s" r="F37">
+      <c r="F37" t="s">
         <v>258</v>
       </c>
     </row>
     <row spans="1:6" r="38">
-      <c t="s" r="A38">
+      <c r="A38" t="s">
         <v>196</v>
       </c>
-      <c t="s" r="B38">
+      <c r="B38" t="s">
         <v>200</v>
       </c>
-      <c t="s" r="C38">
+      <c r="C38" t="s">
         <v>331</v>
       </c>
-      <c t="s" r="D38">
+      <c r="D38" t="s">
         <v>332</v>
       </c>
-      <c t="s" r="E38">
+      <c r="E38" t="s">
         <v>333</v>
       </c>
-      <c t="s" r="F38">
+      <c r="F38" t="s">
         <v>334</v>
       </c>
     </row>
     <row spans="1:6" r="39">
-      <c t="s" r="A39">
+      <c r="A39" t="s">
         <v>202</v>
       </c>
-      <c t="s" r="B39">
+      <c r="B39" t="s">
         <v>205</v>
       </c>
-      <c t="s" r="C39">
+      <c r="C39" t="s">
         <v>335</v>
       </c>
-      <c t="s" r="D39">
+      <c r="D39" t="s">
         <v>186</v>
       </c>
-      <c t="s" r="E39">
+      <c r="E39" t="s">
         <v>336</v>
       </c>
-      <c t="s" r="F39">
+      <c r="F39" t="s">
         <v>287</v>
       </c>
     </row>
     <row spans="1:6" r="40">
-      <c t="s" r="A40">
+      <c r="A40" t="s">
         <v>207</v>
       </c>
-      <c t="s" r="B40">
+      <c r="B40" t="s">
         <v>211</v>
       </c>
-      <c t="s" r="C40">
+      <c r="C40" t="s">
         <v>337</v>
       </c>
-      <c t="s" r="D40">
+      <c r="D40" t="s">
         <v>338</v>
       </c>
-      <c t="s" r="E40">
+      <c r="E40" t="s">
         <v>339</v>
       </c>
-      <c t="s" r="F40">
+      <c r="F40" t="s">
         <v>340</v>
       </c>
     </row>
     <row spans="1:6" r="41">
-      <c t="s" r="A41">
+      <c r="A41" t="s">
         <v>213</v>
       </c>
-      <c t="s" r="B41">
+      <c r="B41" t="s">
         <v>217</v>
       </c>
-      <c t="s" r="C41">
+      <c r="C41" t="s">
         <v>341</v>
       </c>
-      <c t="s" r="D41">
+      <c r="D41" t="s">
         <v>342</v>
       </c>
-      <c t="s" r="E41">
+      <c r="E41" t="s">
         <v>343</v>
       </c>
-      <c t="s" r="F41">
+      <c r="F41" t="s">
         <v>344</v>
       </c>
     </row>
     <row spans="1:6" r="42">
-      <c t="s" r="A42">
+      <c r="A42" t="s">
         <v>219</v>
       </c>
-      <c t="s" r="B42">
+      <c r="B42" t="s">
         <v>223</v>
       </c>
-      <c t="s" r="C42">
+      <c r="C42" t="s">
         <v>345</v>
       </c>
-      <c t="s" r="D42">
+      <c r="D42" t="s">
         <v>346</v>
       </c>
-      <c t="s" r="E42">
+      <c r="E42" t="s">
         <v>347</v>
       </c>
-      <c t="s" r="F42">
+      <c r="F42" t="s">
         <v>348</v>
       </c>
     </row>
     <row spans="1:6" r="43">
-      <c t="s" r="A43">
+      <c r="A43" t="s">
         <v>349</v>
       </c>
-      <c t="s" r="B43"/>
-      <c t="s" r="C43"/>
-      <c t="s" r="D43"/>
-      <c t="s" r="E43"/>
-      <c t="s" r="F43">
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="s"/>
+      <c r="E43" t="s"/>
+      <c r="F43" t="s">
         <v>258</v>
       </c>
     </row>
     <row spans="1:6" r="44">
-      <c t="s" r="A44">
+      <c r="A44" t="s">
         <v>350</v>
       </c>
-      <c t="s" r="B44"/>
-      <c t="s" r="C44"/>
-      <c t="s" r="D44"/>
-      <c t="s" r="E44"/>
-      <c t="s" r="F44">
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="s"/>
+      <c r="E44" t="s"/>
+      <c r="F44" t="s">
         <v>258</v>
       </c>
     </row>
     <row spans="1:6" r="45">
-      <c t="s" r="A45">
+      <c r="A45" t="s">
         <v>351</v>
       </c>
-      <c t="s" r="B45"/>
-      <c t="s" r="C45"/>
-      <c t="s" r="D45"/>
-      <c t="s" r="E45"/>
-      <c t="s" r="F45">
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="s"/>
+      <c r="E45" t="s"/>
+      <c r="F45" t="s">
         <v>352</v>
       </c>
     </row>
@@ -3164,104 +3164,104 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row spans="1:5" r="1">
-      <c s="1" t="s" r="A1">
+      <c s="1" r="A1" t="s">
         <v>353</v>
       </c>
-      <c s="1" t="s" r="B1">
+      <c s="1" r="B1" t="s">
         <v>354</v>
       </c>
-      <c s="1" t="s" r="C1">
+      <c s="1" r="C1" t="s">
         <v>355</v>
       </c>
-      <c s="1" t="s" r="D1">
+      <c s="1" r="D1" t="s">
         <v>190</v>
       </c>
-      <c s="1" t="s" r="E1">
+      <c s="1" r="E1" t="s">
         <v>356</v>
       </c>
     </row>
     <row spans="1:5" r="2">
-      <c t="s" r="A2">
+      <c r="A2" t="s">
         <v>357</v>
       </c>
-      <c t="s" r="B2">
+      <c r="B2" t="s">
         <v>358</v>
       </c>
-      <c t="s" r="C2">
+      <c r="C2" t="s">
         <v>359</v>
       </c>
-      <c t="s" r="D2">
+      <c r="D2" t="s">
         <v>191</v>
       </c>
-      <c t="s" r="E2">
+      <c r="E2" t="s">
         <v>360</v>
       </c>
     </row>
     <row spans="1:5" r="3">
-      <c t="s" r="A3">
+      <c r="A3" t="s">
         <v>361</v>
       </c>
-      <c t="s" r="B3">
+      <c r="B3" t="s">
         <v>362</v>
       </c>
-      <c t="s" r="C3">
+      <c r="C3" t="s">
         <v>363</v>
       </c>
-      <c t="s" r="D3">
+      <c r="D3" t="s">
         <v>364</v>
       </c>
-      <c t="s" r="E3">
+      <c r="E3" t="s">
         <v>365</v>
       </c>
     </row>
     <row spans="1:5" r="4">
-      <c t="s" r="A4">
+      <c r="A4" t="s">
         <v>366</v>
       </c>
-      <c t="s" r="B4">
+      <c r="B4" t="s">
         <v>362</v>
       </c>
-      <c t="s" r="C4">
+      <c r="C4" t="s">
         <v>363</v>
       </c>
-      <c t="s" r="D4">
+      <c r="D4" t="s">
         <v>364</v>
       </c>
-      <c t="s" r="E4">
+      <c r="E4" t="s">
         <v>365</v>
       </c>
     </row>
     <row spans="1:5" r="5">
-      <c t="s" r="A5">
+      <c r="A5" t="s">
         <v>367</v>
       </c>
-      <c t="s" r="B5">
+      <c r="B5" t="s">
         <v>362</v>
       </c>
-      <c t="s" r="C5">
+      <c r="C5" t="s">
         <v>363</v>
       </c>
-      <c t="s" r="D5">
+      <c r="D5" t="s">
         <v>364</v>
       </c>
-      <c t="s" r="E5">
+      <c r="E5" t="s">
         <v>365</v>
       </c>
     </row>
     <row spans="1:5" r="6">
-      <c t="s" r="A6">
+      <c r="A6" t="s">
         <v>368</v>
       </c>
-      <c t="s" r="B6">
+      <c r="B6" t="s">
         <v>358</v>
       </c>
-      <c t="s" r="C6">
+      <c r="C6" t="s">
         <v>359</v>
       </c>
-      <c t="s" r="D6">
+      <c r="D6" t="s">
         <v>191</v>
       </c>
-      <c t="s" r="E6">
+      <c r="E6" t="s">
         <v>360</v>
       </c>
     </row>
